--- a/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>CRWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,78 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,131 +744,140 @@
         <v>18600</v>
       </c>
       <c r="E8" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F8" s="3">
         <v>15900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13600</v>
-      </c>
-      <c r="N8" s="3">
-        <v>17300</v>
       </c>
       <c r="O8" s="3">
         <v>17300</v>
       </c>
       <c r="P8" s="3">
+        <v>17300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E9" s="3">
         <v>12700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E10" s="3">
         <v>5900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,8 +1000,8 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -991,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>6500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1014,8 +1033,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1082,43 +1108,46 @@
         <v>16200</v>
       </c>
       <c r="E17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F17" s="3">
         <v>14800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,43 +1155,46 @@
         <v>2400</v>
       </c>
       <c r="E18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,20 +1211,21 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1212,19 +1245,22 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1232,43 +1268,46 @@
         <v>2800</v>
       </c>
       <c r="E21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F21" s="3">
         <v>1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1278,8 +1317,8 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1294,7 +1333,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1311,8 +1350,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1320,87 +1362,93 @@
         <v>2400</v>
       </c>
       <c r="E23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>500</v>
       </c>
       <c r="G24" s="3">
         <v>500</v>
       </c>
       <c r="H24" s="3">
+        <v>500</v>
+      </c>
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>600</v>
       </c>
       <c r="K24" s="3">
         <v>600</v>
       </c>
       <c r="L24" s="3">
+        <v>600</v>
+      </c>
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1598,14 +1658,14 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-400</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,20 +1773,23 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1740,63 +1809,69 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,25 +2053,26 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
@@ -1995,25 +2081,28 @@
         <v>200</v>
       </c>
       <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,113 +2145,122 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E43" s="3">
         <v>14200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>18500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>12800</v>
       </c>
       <c r="L43" s="3">
         <v>12800</v>
       </c>
       <c r="M43" s="3">
+        <v>12800</v>
+      </c>
+      <c r="N43" s="3">
         <v>13100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E44" s="3">
         <v>21900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>20400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>19500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>22200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>19800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>15600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>15800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1300</v>
       </c>
       <c r="I45" s="3">
         <v>1300</v>
@@ -2171,69 +2269,75 @@
         <v>1300</v>
       </c>
       <c r="K45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1800</v>
       </c>
       <c r="N45" s="3">
         <v>1800</v>
       </c>
       <c r="O45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E46" s="3">
         <v>37300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>38700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>38800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>36800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>39800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>41100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>48400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,19 +2380,22 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E48" s="3">
         <v>3100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1900</v>
       </c>
       <c r="G48" s="3">
         <v>1900</v>
@@ -2297,75 +2404,81 @@
         <v>1900</v>
       </c>
       <c r="I48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J48" s="3">
         <v>1700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>500</v>
       </c>
       <c r="P48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E49" s="3">
         <v>13100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2461,43 +2580,46 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>500</v>
       </c>
       <c r="H52" s="3">
         <v>500</v>
       </c>
       <c r="I52" s="3">
+        <v>500</v>
+      </c>
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1300</v>
       </c>
       <c r="M52" s="3">
         <v>1300</v>
       </c>
       <c r="N52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O52" s="3">
         <v>1400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E54" s="3">
         <v>54100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>55000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>54800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>55000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>54300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>53400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>56600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>48200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>47200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>54800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E57" s="3">
         <v>6400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>5400</v>
       </c>
       <c r="M57" s="3">
         <v>5400</v>
       </c>
       <c r="N57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O57" s="3">
         <v>5100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2708,96 +2841,105 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>3500</v>
       </c>
       <c r="G59" s="3">
         <v>3500</v>
       </c>
       <c r="H59" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="I59" s="3">
         <v>2600</v>
       </c>
       <c r="J59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2808,26 +2950,26 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>4500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2840,28 +2982,31 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1200</v>
       </c>
       <c r="G62" s="3">
         <v>1200</v>
       </c>
       <c r="H62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I62" s="3">
         <v>1100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1000</v>
       </c>
       <c r="J62" s="3">
         <v>1000</v>
@@ -2870,10 +3015,10 @@
         <v>1000</v>
       </c>
       <c r="L62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M62" s="3">
         <v>800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>700</v>
       </c>
       <c r="N62" s="3">
         <v>700</v>
@@ -2882,10 +3027,13 @@
         <v>700</v>
       </c>
       <c r="P62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E76" s="3">
         <v>42700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>39900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>39300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43828</v>
+      </c>
+      <c r="E80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3650,19 +3848,19 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -3673,8 +3871,11 @@
       <c r="P83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,28 +4174,29 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -3985,22 +4205,25 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-6600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4185,16 +4418,19 @@
         <v>-800</v>
       </c>
       <c r="N96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O96" s="3">
         <v>-4800</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-800</v>
       </c>
       <c r="P96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4334,43 +4579,46 @@
         <v>-800</v>
       </c>
       <c r="E100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4900</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-800</v>
       </c>
       <c r="P100" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>CRWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F7" s="2">
         <v>43828</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F8" s="3">
         <v>18600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>18600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>15900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>21700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>18700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>20500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>15500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>22700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>17500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>16500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>13600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>17300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>17300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F9" s="3">
         <v>12800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>12700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>11400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>15500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>13100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>14200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>16800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>12200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>11400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>10000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>12100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F10" s="3">
         <v>5800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>4500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>6200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>6300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1003,32 +1043,32 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>6500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1036,8 +1076,14 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>200</v>
+      </c>
+      <c r="S15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F17" s="3">
         <v>16200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>16200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>14800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>19700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>16500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>18000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>20700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>15200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>12900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>14700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>14200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1278,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,17 +1289,17 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1248,66 +1316,78 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>2800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1320,11 +1400,11 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1336,10 +1416,10 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1353,102 +1433,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>600</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>600</v>
+      </c>
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1661,17 +1783,17 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-400</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1910,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,17 +1925,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1812,66 +1952,78 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>700</v>
       </c>
       <c r="N33" s="3">
         <v>500</v>
       </c>
       <c r="O33" s="3">
+        <v>700</v>
+      </c>
+      <c r="P33" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>700</v>
       </c>
       <c r="N35" s="3">
         <v>500</v>
       </c>
       <c r="O35" s="3">
+        <v>700</v>
+      </c>
+      <c r="P35" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F38" s="2">
         <v>43828</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2226,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
+        <v>200</v>
+      </c>
+      <c r="M41" s="3">
+        <v>200</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>11900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>14400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2328,226 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F43" s="3">
         <v>15500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>14200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>12500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>17800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>15000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>16700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>14600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>18500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>12800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>12800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>13100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>15600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>14500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F44" s="3">
         <v>23600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>21900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>20400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>19500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>22200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>19800</v>
-      </c>
-      <c r="J44" s="3">
-        <v>20800</v>
       </c>
       <c r="K44" s="3">
         <v>19800</v>
       </c>
       <c r="L44" s="3">
+        <v>20800</v>
+      </c>
+      <c r="M44" s="3">
+        <v>19800</v>
+      </c>
+      <c r="N44" s="3">
         <v>22800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>16800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>15600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>15800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>16400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1300</v>
       </c>
       <c r="K45" s="3">
         <v>1300</v>
       </c>
       <c r="L45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F46" s="3">
         <v>41600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>37300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>37500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>38700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>38800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>37900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>36800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>39800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>37800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>33900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>42300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>41100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>48400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2593,120 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F48" s="3">
         <v>7200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1900</v>
       </c>
       <c r="I48" s="3">
         <v>1900</v>
       </c>
       <c r="J48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L48" s="3">
         <v>1700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>500</v>
       </c>
       <c r="Q48" s="3">
+        <v>400</v>
+      </c>
+      <c r="R48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F49" s="3">
         <v>12900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>13100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>13300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>13600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>13800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>14000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>14200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>14400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>14600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>12100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2805,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1500</v>
       </c>
       <c r="Q52" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S52" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>57200</v>
+      </c>
+      <c r="F54" s="3">
         <v>62200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>54100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>55000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>54800</v>
       </c>
       <c r="H54" s="3">
         <v>55000</v>
       </c>
       <c r="I54" s="3">
+        <v>54800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K54" s="3">
         <v>54300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>53400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>56600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>55100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>48700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>48200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>47200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>54800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,78 +3010,86 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F57" s="3">
         <v>7900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>8900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>5400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>7600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2844,138 +3112,156 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F59" s="3">
         <v>6200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>8500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F60" s="3">
         <v>14000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>11600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>11200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>16100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>4500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>9500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -2985,55 +3271,67 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F62" s="3">
         <v>6600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1000</v>
       </c>
       <c r="L62" s="3">
         <v>1000</v>
       </c>
       <c r="M62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O62" s="3">
         <v>800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>700</v>
-      </c>
-      <c r="O62" s="3">
-        <v>700</v>
       </c>
       <c r="P62" s="3">
         <v>700</v>
       </c>
       <c r="Q62" s="3">
+        <v>700</v>
+      </c>
+      <c r="R62" s="3">
+        <v>700</v>
+      </c>
+      <c r="S62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F66" s="3">
         <v>20600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>13300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>13400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>14200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>14400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>14600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>17300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>16400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>16800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F72" s="3">
         <v>300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>42400</v>
+      </c>
+      <c r="F76" s="3">
         <v>41600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>42700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>41700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>41400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>40700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>39900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>38800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>39300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>38700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>38900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>38800</v>
       </c>
       <c r="O76" s="3">
         <v>38900</v>
       </c>
       <c r="P76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>38900</v>
+      </c>
+      <c r="R76" s="3">
         <v>38100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F80" s="2">
         <v>43828</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>700</v>
       </c>
       <c r="N81" s="3">
         <v>500</v>
       </c>
       <c r="O81" s="3">
+        <v>700</v>
+      </c>
+      <c r="P81" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3851,7 +4249,7 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -3860,13 +4258,13 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
+        <v>400</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
-        <v>200</v>
-      </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>8700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>3400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>6600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>5000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4615,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4184,7 +4626,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -4193,22 +4635,22 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4770,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,7 +4785,7 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -4334,28 +4794,28 @@
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-8800</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
@@ -4363,8 +4823,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4391,7 +4859,7 @@
         <v>-800</v>
       </c>
       <c r="E96" s="3">
-        <v>-800</v>
+        <v>-3400</v>
       </c>
       <c r="F96" s="3">
         <v>-800</v>
@@ -4421,16 +4889,22 @@
         <v>-800</v>
       </c>
       <c r="O96" s="3">
-        <v>-4800</v>
+        <v>-800</v>
       </c>
       <c r="P96" s="3">
         <v>-800</v>
       </c>
       <c r="Q96" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="R96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5056,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-800</v>
+        <v>-1400</v>
       </c>
       <c r="E100" s="3">
         <v>-800</v>
       </c>
       <c r="F100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H100" s="3">
         <v>-5300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-3300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-6500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>6300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-4900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-8700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-6500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>CRWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
         <v>44010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E8" s="3">
         <v>16200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>18600</v>
       </c>
       <c r="G8" s="3">
         <v>18600</v>
       </c>
       <c r="H8" s="3">
+        <v>18600</v>
+      </c>
+      <c r="I8" s="3">
         <v>15900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>17300</v>
       </c>
       <c r="R8" s="3">
         <v>17300</v>
       </c>
       <c r="S8" s="3">
+        <v>17300</v>
+      </c>
+      <c r="T8" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E9" s="3">
         <v>11200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E10" s="3">
         <v>5000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1049,8 +1069,8 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1059,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>6500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E17" s="3">
         <v>14600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>16200</v>
       </c>
       <c r="G17" s="3">
         <v>16200</v>
       </c>
       <c r="H17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="I17" s="3">
         <v>14800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2400</v>
       </c>
       <c r="G18" s="3">
         <v>2400</v>
       </c>
       <c r="H18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,14 +1329,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1322,72 +1356,78 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E21" s="3">
         <v>2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2800</v>
       </c>
       <c r="G21" s="3">
         <v>2800</v>
       </c>
       <c r="H21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I21" s="3">
         <v>1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1406,8 +1446,8 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1422,7 +1462,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1439,114 +1479,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2400</v>
       </c>
       <c r="G23" s="3">
         <v>2400</v>
       </c>
       <c r="H23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>500</v>
       </c>
       <c r="J24" s="3">
         <v>500</v>
       </c>
       <c r="K24" s="3">
+        <v>500</v>
+      </c>
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>600</v>
       </c>
       <c r="N24" s="3">
         <v>600</v>
       </c>
       <c r="O24" s="3">
+        <v>600</v>
+      </c>
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1789,14 +1850,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-400</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1931,14 +2001,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1958,72 +2028,78 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
         <v>44010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,34 +2314,35 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E41" s="3">
         <v>6700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
@@ -2264,25 +2351,28 @@
         <v>200</v>
       </c>
       <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,140 +2424,149 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E43" s="3">
         <v>15100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>12800</v>
       </c>
       <c r="O43" s="3">
         <v>12800</v>
       </c>
       <c r="P43" s="3">
+        <v>12800</v>
+      </c>
+      <c r="Q43" s="3">
         <v>13100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E44" s="3">
         <v>17300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>23600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>21900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>20400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>22200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>19800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>20800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>19800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>22800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>15600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>16400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1300</v>
       </c>
       <c r="L45" s="3">
         <v>1300</v>
@@ -2476,78 +2575,84 @@
         <v>1300</v>
       </c>
       <c r="N45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1800</v>
       </c>
       <c r="Q45" s="3">
         <v>1800</v>
       </c>
       <c r="R45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S45" s="3">
         <v>3200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E46" s="3">
         <v>40200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>41600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>38700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>38800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>37800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>41100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>48400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,28 +2704,31 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1900</v>
       </c>
       <c r="J48" s="3">
         <v>1900</v>
@@ -2629,84 +2737,90 @@
         <v>1900</v>
       </c>
       <c r="L48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M48" s="3">
         <v>1700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>400</v>
-      </c>
-      <c r="R48" s="3">
-        <v>500</v>
       </c>
       <c r="S48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E49" s="3">
         <v>12500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
       <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>500</v>
       </c>
       <c r="K52" s="3">
         <v>500</v>
       </c>
       <c r="L52" s="3">
+        <v>500</v>
+      </c>
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1300</v>
       </c>
       <c r="P52" s="3">
         <v>1300</v>
       </c>
       <c r="Q52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R52" s="3">
         <v>1400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E54" s="3">
         <v>59700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>57200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>62200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>54100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>54800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>54300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>56600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>48700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>48200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>47200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>54800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,69 +3142,73 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>5400</v>
       </c>
       <c r="P57" s="3">
         <v>5400</v>
       </c>
       <c r="Q57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R57" s="3">
         <v>5100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -3091,8 +3225,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3118,126 +3252,135 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3500</v>
       </c>
       <c r="J59" s="3">
         <v>3500</v>
       </c>
       <c r="K59" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="L59" s="3">
         <v>2600</v>
       </c>
       <c r="M59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E60" s="3">
         <v>9300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3245,26 +3388,26 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>4500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3277,37 +3420,40 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1200</v>
       </c>
       <c r="J62" s="3">
         <v>1200</v>
       </c>
       <c r="K62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L62" s="3">
         <v>1100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1000</v>
       </c>
       <c r="M62" s="3">
         <v>1000</v>
@@ -3316,10 +3462,10 @@
         <v>1000</v>
       </c>
       <c r="O62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P62" s="3">
         <v>800</v>
-      </c>
-      <c r="P62" s="3">
-        <v>700</v>
       </c>
       <c r="Q62" s="3">
         <v>700</v>
@@ -3328,10 +3474,13 @@
         <v>700</v>
       </c>
       <c r="S62" s="3">
+        <v>700</v>
+      </c>
+      <c r="T62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E66" s="3">
         <v>16000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E76" s="3">
         <v>43700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>42400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>42700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>40700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>38100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
         <v>44010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4255,19 +4454,19 @@
         <v>400</v>
       </c>
       <c r="L83" s="3">
+        <v>400</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>7900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,37 +4837,38 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -4656,22 +4877,25 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
       <c r="K94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-6600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,19 +5083,20 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3400</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-800</v>
       </c>
       <c r="G96" s="3">
         <v>-800</v>
@@ -4895,16 +5129,19 @@
         <v>-800</v>
       </c>
       <c r="Q96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R96" s="3">
         <v>-4800</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-800</v>
       </c>
       <c r="S96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,16 +5305,19 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1400</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-800</v>
       </c>
       <c r="F100" s="3">
         <v>-800</v>
@@ -5080,43 +5326,46 @@
         <v>-800</v>
       </c>
       <c r="H100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I100" s="3">
         <v>-5300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4900</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-800</v>
       </c>
       <c r="S100" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>6400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>CRWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E8" s="3">
         <v>21700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>18600</v>
       </c>
       <c r="H8" s="3">
         <v>18600</v>
       </c>
       <c r="I8" s="3">
+        <v>18600</v>
+      </c>
+      <c r="J8" s="3">
         <v>15900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13600</v>
-      </c>
-      <c r="R8" s="3">
-        <v>17300</v>
       </c>
       <c r="S8" s="3">
         <v>17300</v>
       </c>
       <c r="T8" s="3">
+        <v>17300</v>
+      </c>
+      <c r="U8" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E9" s="3">
         <v>14600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E10" s="3">
         <v>7100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1072,8 +1091,8 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1082,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>6500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1105,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E17" s="3">
         <v>18400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>16200</v>
       </c>
       <c r="H17" s="3">
         <v>16200</v>
       </c>
       <c r="I17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="J17" s="3">
         <v>14800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2400</v>
       </c>
       <c r="H18" s="3">
         <v>2400</v>
       </c>
       <c r="I18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,14 +1365,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1359,75 +1392,81 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E21" s="3">
         <v>3700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2800</v>
       </c>
       <c r="H21" s="3">
         <v>2800</v>
       </c>
       <c r="I21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1449,8 +1488,8 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1465,7 +1504,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1482,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2400</v>
       </c>
       <c r="H23" s="3">
         <v>2400</v>
       </c>
       <c r="I23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>500</v>
       </c>
       <c r="K24" s="3">
         <v>500</v>
       </c>
       <c r="L24" s="3">
+        <v>500</v>
+      </c>
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>600</v>
       </c>
       <c r="O24" s="3">
         <v>600</v>
       </c>
       <c r="P24" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1853,14 +1913,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-400</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2004,14 +2073,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2031,75 +2100,81 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,37 +2400,38 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>6800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
@@ -2354,25 +2440,28 @@
         <v>200</v>
       </c>
       <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,149 +2516,158 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E43" s="3">
         <v>18800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18500</v>
-      </c>
-      <c r="O43" s="3">
-        <v>12800</v>
       </c>
       <c r="P43" s="3">
         <v>12800</v>
       </c>
       <c r="Q43" s="3">
+        <v>12800</v>
+      </c>
+      <c r="R43" s="3">
         <v>13100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E44" s="3">
         <v>19200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>23600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>21900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>19500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>19800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>19800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>22800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>15800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>16400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1300</v>
       </c>
       <c r="M45" s="3">
         <v>1300</v>
@@ -2578,81 +2676,87 @@
         <v>1300</v>
       </c>
       <c r="O45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1800</v>
       </c>
       <c r="R45" s="3">
         <v>1800</v>
       </c>
       <c r="S45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T45" s="3">
         <v>3200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E46" s="3">
         <v>45500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>40200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>41600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>37500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>38700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>39800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>37800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>41100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>48400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,31 +2811,34 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E48" s="3">
         <v>6000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1900</v>
       </c>
       <c r="K48" s="3">
         <v>1900</v>
@@ -2740,87 +2847,93 @@
         <v>1900</v>
       </c>
       <c r="M48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N48" s="3">
         <v>1700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>400</v>
-      </c>
-      <c r="S48" s="3">
-        <v>500</v>
       </c>
       <c r="T48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E49" s="3">
         <v>12300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
       </c>
       <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>500</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
       </c>
       <c r="M52" s="3">
+        <v>500</v>
+      </c>
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>800</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1300</v>
       </c>
       <c r="Q52" s="3">
         <v>1300</v>
       </c>
       <c r="R52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S52" s="3">
         <v>1400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E54" s="3">
         <v>64400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>59700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>57200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>54100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>55000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>54800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>53400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>56600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>48700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>48200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>47200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>54800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,75 +3272,79 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E57" s="3">
         <v>8100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>5400</v>
       </c>
       <c r="Q57" s="3">
         <v>5400</v>
       </c>
       <c r="R57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S57" s="3">
         <v>5100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -3228,8 +3361,8 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3255,135 +3388,144 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>3500</v>
       </c>
       <c r="K59" s="3">
         <v>3500</v>
       </c>
       <c r="L59" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="M59" s="3">
         <v>2600</v>
       </c>
       <c r="N59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E60" s="3">
         <v>12800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3391,26 +3533,26 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>4500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3423,40 +3565,43 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E62" s="3">
         <v>5000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1200</v>
       </c>
       <c r="K62" s="3">
         <v>1200</v>
       </c>
       <c r="L62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M62" s="3">
         <v>1100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1000</v>
       </c>
       <c r="N62" s="3">
         <v>1000</v>
@@ -3465,10 +3610,10 @@
         <v>1000</v>
       </c>
       <c r="P62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q62" s="3">
         <v>800</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>700</v>
       </c>
       <c r="R62" s="3">
         <v>700</v>
@@ -3477,10 +3622,13 @@
         <v>700</v>
       </c>
       <c r="T62" s="3">
+        <v>700</v>
+      </c>
+      <c r="U62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E66" s="3">
         <v>18900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E72" s="3">
         <v>4000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E76" s="3">
         <v>45500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>42700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>38900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>38100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44192</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4457,19 +4655,19 @@
         <v>400</v>
       </c>
       <c r="M83" s="3">
+        <v>400</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -4480,8 +4678,11 @@
       <c r="T83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,40 +5057,41 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -4880,22 +5100,25 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
       <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-6600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,22 +5316,23 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-800</v>
       </c>
       <c r="H96" s="3">
         <v>-800</v>
@@ -5132,16 +5365,19 @@
         <v>-800</v>
       </c>
       <c r="R96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S96" s="3">
         <v>-4800</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-800</v>
       </c>
       <c r="T96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,19 +5550,22 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-800</v>
       </c>
       <c r="G100" s="3">
         <v>-800</v>
@@ -5329,43 +5574,46 @@
         <v>-800</v>
       </c>
       <c r="I100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J100" s="3">
         <v>-5300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4900</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-800</v>
       </c>
       <c r="T100" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>CRWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,296 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44283</v>
+      </c>
+      <c r="F7" s="2">
         <v>44192</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44010</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43919</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43828</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43737</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43464</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43282</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43191</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43009</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42918</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42827</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42736</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F8" s="3">
         <v>19500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>21700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>16200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>20300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>18600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>18600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>15900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>21700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>18700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>20500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>15500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>22700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>17500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>16500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>13600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>17300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>17300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F9" s="3">
         <v>13300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>14600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>11200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>15000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>12800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>12700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>15500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>13100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>14200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>16800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>12200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>11400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>10000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>12100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>11600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F10" s="3">
         <v>6200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>7100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>6200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>6300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>5100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>3600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>5200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>5700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +976,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1037,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,16 +1102,22 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1094,32 +1134,32 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>6500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1127,13 +1167,19 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>200</v>
+      </c>
+      <c r="W15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1258,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F17" s="3">
         <v>16700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>18400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>14600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>18500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>16200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>16200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>19700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>18000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>15000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>20700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>15900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>15200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>12900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>14700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>14200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1413,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1368,17 +1436,17 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1395,78 +1463,90 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="3">
         <v>3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>3300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1491,11 +1571,11 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1507,10 +1587,10 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1524,67 +1604,79 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,58 +1684,64 @@
         <v>600</v>
       </c>
       <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>600</v>
+      </c>
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>600</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
+        <v>600</v>
+      </c>
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1799,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,31 +1994,37 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1916,17 +2038,17 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2189,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2076,17 +2216,17 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2103,78 +2243,90 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>700</v>
       </c>
       <c r="R33" s="3">
         <v>500</v>
       </c>
       <c r="S33" s="3">
+        <v>700</v>
+      </c>
+      <c r="T33" s="3">
+        <v>500</v>
+      </c>
+      <c r="U33" s="3">
         <v>1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2384,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>700</v>
       </c>
       <c r="R35" s="3">
         <v>500</v>
       </c>
       <c r="S35" s="3">
+        <v>700</v>
+      </c>
+      <c r="T35" s="3">
+        <v>500</v>
+      </c>
+      <c r="U35" s="3">
         <v>1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44283</v>
+      </c>
+      <c r="F38" s="2">
         <v>44192</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44010</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43919</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43828</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43737</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43464</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43282</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43191</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43009</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42918</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42827</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42736</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2573,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>200</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>11900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>7900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>14400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2699,274 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F43" s="3">
         <v>18200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>18800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>15100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>17800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>15500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>14200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>12500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>17800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>15000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>16700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>14600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>18500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>12800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>12800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>13100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>15600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>14500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F44" s="3">
         <v>22800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>19200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>17300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>17700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>23600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>21900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>20400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>19500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>22200</v>
-      </c>
-      <c r="M44" s="3">
-        <v>19800</v>
-      </c>
-      <c r="N44" s="3">
-        <v>20800</v>
       </c>
       <c r="O44" s="3">
         <v>19800</v>
       </c>
       <c r="P44" s="3">
+        <v>20800</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>19800</v>
+      </c>
+      <c r="R44" s="3">
         <v>22800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>16800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>15600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>15800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>16400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1300</v>
       </c>
       <c r="O45" s="3">
         <v>1300</v>
       </c>
       <c r="P45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>3200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>41500</v>
+      </c>
+      <c r="F46" s="3">
         <v>46900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>45500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>40200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>37000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>41600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>37300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>37500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>38700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>38800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>37900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>36800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>39800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>37800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>33900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>42300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>41100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>48400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +3024,144 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F48" s="3">
         <v>6600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>6000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>6300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>7200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1900</v>
       </c>
       <c r="M48" s="3">
         <v>1900</v>
       </c>
       <c r="N48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P48" s="3">
         <v>1700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>400</v>
       </c>
       <c r="T48" s="3">
         <v>500</v>
       </c>
       <c r="U48" s="3">
+        <v>400</v>
+      </c>
+      <c r="V48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F49" s="3">
         <v>12100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>12300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>12500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>12700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>12900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>13100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>13300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>13600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>13800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>14000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>14200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>14400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>14600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>12100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>4300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>4400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3284,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>800</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1300</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1400</v>
-      </c>
-      <c r="T52" s="3">
-        <v>1500</v>
       </c>
       <c r="U52" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W52" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3414,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>58100</v>
+      </c>
+      <c r="F54" s="3">
         <v>65800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>64400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>59700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>57200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>62200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>54100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>55000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>54800</v>
       </c>
       <c r="L54" s="3">
         <v>55000</v>
       </c>
       <c r="M54" s="3">
+        <v>54800</v>
+      </c>
+      <c r="N54" s="3">
+        <v>55000</v>
+      </c>
+      <c r="O54" s="3">
         <v>54300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>53400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>56600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>55100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>48700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>48200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>47200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>54800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,84 +3533,92 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F57" s="3">
         <v>8900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>6400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>6300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>7100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>8900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>5400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>5400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>7600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -3364,11 +3632,11 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3391,174 +3659,192 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F59" s="3">
         <v>6900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>8500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F60" s="3">
         <v>17200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>12800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>14000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>9700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>11200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>13100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>9100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>7600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>16100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>4500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>9500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3568,67 +3854,79 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F62" s="3">
         <v>5600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>6600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1000</v>
       </c>
       <c r="P62" s="3">
         <v>1000</v>
       </c>
       <c r="Q62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S62" s="3">
         <v>800</v>
-      </c>
-      <c r="R62" s="3">
-        <v>700</v>
-      </c>
-      <c r="S62" s="3">
-        <v>700</v>
       </c>
       <c r="T62" s="3">
         <v>700</v>
       </c>
       <c r="U62" s="3">
+        <v>700</v>
+      </c>
+      <c r="V62" s="3">
+        <v>700</v>
+      </c>
+      <c r="W62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4114,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F66" s="3">
         <v>23400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>16000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>20600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>14200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>14600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>17300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>16400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>8300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>16800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4464,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F72" s="3">
         <v>2800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>4000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4724,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>41900</v>
+      </c>
+      <c r="F76" s="3">
         <v>42400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>45500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>43700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>42400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>41600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>42700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>41700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>41400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>40700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>39900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>38800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>39300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>38700</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>38900</v>
-      </c>
-      <c r="R76" s="3">
-        <v>38800</v>
       </c>
       <c r="S76" s="3">
         <v>38900</v>
       </c>
       <c r="T76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="U76" s="3">
+        <v>38900</v>
+      </c>
+      <c r="V76" s="3">
         <v>38100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4854,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44283</v>
+      </c>
+      <c r="F80" s="2">
         <v>44192</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44010</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43919</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43828</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43737</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43464</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43282</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43191</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43009</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42918</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42827</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42736</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>700</v>
       </c>
       <c r="R81" s="3">
         <v>500</v>
       </c>
       <c r="S81" s="3">
+        <v>700</v>
+      </c>
+      <c r="T81" s="3">
+        <v>500</v>
+      </c>
+      <c r="U81" s="3">
         <v>1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,13 +5018,15 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -4658,7 +5056,7 @@
         <v>400</v>
       </c>
       <c r="N83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
@@ -4667,13 +5065,13 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>400</v>
+      </c>
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3">
-        <v>200</v>
-      </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -4681,8 +5079,14 @@
       <c r="U83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5404,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>7900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>8700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>6600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-6200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>4900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>5000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,19 +5498,21 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-300</v>
-      </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
@@ -5079,7 +5521,7 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -5088,22 +5530,22 @@
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -5117,8 +5559,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,19 +5689,25 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>-300</v>
-      </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-300</v>
@@ -5256,7 +5716,7 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -5265,28 +5725,28 @@
         <v>-200</v>
       </c>
       <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-8800</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
@@ -5294,8 +5754,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5326,19 +5794,19 @@
         <v>-800</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="F96" s="3">
         <v>-800</v>
       </c>
       <c r="G96" s="3">
-        <v>-3400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-800</v>
       </c>
       <c r="I96" s="3">
-        <v>-800</v>
+        <v>-3400</v>
       </c>
       <c r="J96" s="3">
         <v>-800</v>
@@ -5368,16 +5836,22 @@
         <v>-800</v>
       </c>
       <c r="S96" s="3">
-        <v>-4800</v>
+        <v>-800</v>
       </c>
       <c r="T96" s="3">
         <v>-800</v>
       </c>
       <c r="U96" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="V96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6039,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-800</v>
       </c>
       <c r="I100" s="3">
         <v>-800</v>
       </c>
       <c r="J100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L100" s="3">
         <v>-5300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-3300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-6500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>6300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-4900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +6169,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>6400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-8700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>4000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-6500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>4200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>CRWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E7" s="2">
         <v>44374</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44283</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44192</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44101</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44010</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43828</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43737</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43464</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43282</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43191</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43009</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42918</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42827</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42736</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E8" s="3">
         <v>18700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>18600</v>
       </c>
       <c r="K8" s="3">
         <v>18600</v>
       </c>
       <c r="L8" s="3">
+        <v>18600</v>
+      </c>
+      <c r="M8" s="3">
         <v>15900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13600</v>
-      </c>
-      <c r="U8" s="3">
-        <v>17300</v>
       </c>
       <c r="V8" s="3">
         <v>17300</v>
       </c>
       <c r="W8" s="3">
+        <v>17300</v>
+      </c>
+      <c r="X8" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E9" s="3">
         <v>14100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,19 +1125,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1140,8 +1160,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1150,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>6500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,7 +1205,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E17" s="3">
         <v>15400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>16200</v>
       </c>
       <c r="K17" s="3">
         <v>16200</v>
       </c>
       <c r="L17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="M17" s="3">
         <v>14800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2400</v>
       </c>
       <c r="K18" s="3">
         <v>2400</v>
       </c>
       <c r="L18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,20 +1448,21 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1442,14 +1476,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1469,84 +1503,90 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E21" s="3">
         <v>3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2800</v>
       </c>
       <c r="K21" s="3">
         <v>2800</v>
       </c>
       <c r="L21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M21" s="3">
         <v>1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1577,8 +1617,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1593,7 +1633,7 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1610,73 +1650,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2400</v>
       </c>
       <c r="K23" s="3">
         <v>2400</v>
       </c>
       <c r="L23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1684,64 +1730,67 @@
         <v>600</v>
       </c>
       <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>500</v>
       </c>
       <c r="N24" s="3">
         <v>500</v>
       </c>
       <c r="O24" s="3">
+        <v>500</v>
+      </c>
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>600</v>
       </c>
       <c r="R24" s="3">
         <v>600</v>
       </c>
       <c r="S24" s="3">
+        <v>600</v>
+      </c>
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2026,8 +2087,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2044,14 +2105,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-400</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,20 +2262,23 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2222,14 +2292,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2249,84 +2319,90 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E38" s="2">
         <v>44374</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44283</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44192</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44101</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44010</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43828</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43737</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43464</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43282</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43191</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43009</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42918</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42827</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42736</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,46 +2661,47 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
@@ -2623,25 +2710,28 @@
         <v>200</v>
       </c>
       <c r="R41" s="3">
+        <v>200</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,176 +2795,185 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E43" s="3">
         <v>17500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>18500</v>
-      </c>
-      <c r="R43" s="3">
-        <v>12800</v>
       </c>
       <c r="S43" s="3">
         <v>12800</v>
       </c>
       <c r="T43" s="3">
+        <v>12800</v>
+      </c>
+      <c r="U43" s="3">
         <v>13100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>14500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E44" s="3">
         <v>22000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>20300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>22800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>19200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>23600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>20400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>19500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>22200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>19800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>20800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>19800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>22800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>16800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>15600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>15800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>16400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1300</v>
       </c>
       <c r="P45" s="3">
         <v>1300</v>
@@ -2883,90 +2982,96 @@
         <v>1300</v>
       </c>
       <c r="R45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S45" s="3">
         <v>2100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>1800</v>
       </c>
       <c r="U45" s="3">
         <v>1800</v>
       </c>
       <c r="V45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W45" s="3">
         <v>3200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E46" s="3">
         <v>45100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>41500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>45500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>40200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>37000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>41600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>37900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>39800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>37800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>33900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>42300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>41100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>48400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,40 +3135,43 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1900</v>
       </c>
       <c r="N48" s="3">
         <v>1900</v>
@@ -3072,96 +3180,102 @@
         <v>1900</v>
       </c>
       <c r="P48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>400</v>
-      </c>
-      <c r="V48" s="3">
-        <v>500</v>
       </c>
       <c r="W48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
       <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
-      </c>
-      <c r="N52" s="3">
-        <v>500</v>
       </c>
       <c r="O52" s="3">
         <v>500</v>
       </c>
       <c r="P52" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>800</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1300</v>
       </c>
       <c r="T52" s="3">
         <v>1300</v>
       </c>
       <c r="U52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V52" s="3">
         <v>1400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E54" s="3">
         <v>61300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>58100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>65800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>64400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>59700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>62200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>54100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>55000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>54800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>54300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>53400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>55100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>48700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>48200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>47200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>54800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,73 +3665,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E57" s="3">
         <v>7900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8900</v>
-      </c>
-      <c r="S57" s="3">
-        <v>5400</v>
       </c>
       <c r="T57" s="3">
         <v>5400</v>
       </c>
       <c r="U57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="V57" s="3">
         <v>5100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3609,19 +3743,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -3638,8 +3772,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3665,138 +3799,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4900</v>
-      </c>
-      <c r="M59" s="3">
-        <v>3500</v>
       </c>
       <c r="N59" s="3">
         <v>3500</v>
       </c>
       <c r="O59" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="P59" s="3">
         <v>2600</v>
       </c>
       <c r="Q59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R59" s="3">
         <v>3000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E60" s="3">
         <v>14600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3807,20 +3950,20 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3828,26 +3971,26 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>4500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3860,49 +4003,52 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1200</v>
       </c>
       <c r="N62" s="3">
         <v>1200</v>
       </c>
       <c r="O62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P62" s="3">
         <v>1100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1000</v>
       </c>
       <c r="Q62" s="3">
         <v>1000</v>
@@ -3911,10 +4057,10 @@
         <v>1000</v>
       </c>
       <c r="S62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T62" s="3">
         <v>800</v>
-      </c>
-      <c r="T62" s="3">
-        <v>700</v>
       </c>
       <c r="U62" s="3">
         <v>700</v>
@@ -3923,10 +4069,13 @@
         <v>700</v>
       </c>
       <c r="W62" s="3">
+        <v>700</v>
+      </c>
+      <c r="X62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E66" s="3">
         <v>17500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E72" s="3">
         <v>4100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E76" s="3">
         <v>43800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>43700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>42400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>42700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>41700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>40700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>39900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>39300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>38700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>38900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>38800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>38900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>38100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E80" s="2">
         <v>44374</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44283</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44192</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44101</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44010</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43828</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43737</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43464</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43282</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43191</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43009</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42918</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42827</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42736</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5029,7 +5228,7 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -5062,19 +5261,19 @@
         <v>400</v>
       </c>
       <c r="P83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
       </c>
       <c r="T83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -5085,8 +5284,11 @@
       <c r="W83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,49 +5720,50 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -5551,22 +5772,25 @@
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
       </c>
       <c r="G94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-200</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
       </c>
       <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
         <v>-6600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5794,22 +6028,22 @@
         <v>-800</v>
       </c>
       <c r="E96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-3400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-800</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-800</v>
       </c>
       <c r="K96" s="3">
         <v>-800</v>
@@ -5842,16 +6076,19 @@
         <v>-800</v>
       </c>
       <c r="U96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V96" s="3">
         <v>-4800</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-800</v>
       </c>
       <c r="W96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6288,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6054,19 +6300,19 @@
         <v>-800</v>
       </c>
       <c r="E100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-800</v>
       </c>
       <c r="J100" s="3">
         <v>-800</v>
@@ -6075,43 +6321,46 @@
         <v>-800</v>
       </c>
       <c r="L100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M100" s="3">
         <v>-5300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4900</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-800</v>
       </c>
       <c r="W100" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E102" s="3">
         <v>4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>CRWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,321 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44556</v>
+      </c>
+      <c r="E7" s="2">
         <v>44465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44374</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44283</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44192</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43919</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43828</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43737</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43464</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43282</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43191</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43009</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42918</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42827</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42736</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E8" s="3">
         <v>20200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>18600</v>
       </c>
       <c r="L8" s="3">
         <v>18600</v>
       </c>
       <c r="M8" s="3">
+        <v>18600</v>
+      </c>
+      <c r="N8" s="3">
         <v>15900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13600</v>
-      </c>
-      <c r="V8" s="3">
-        <v>17300</v>
       </c>
       <c r="W8" s="3">
         <v>17300</v>
       </c>
       <c r="X8" s="3">
+        <v>17300</v>
+      </c>
+      <c r="Y8" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E9" s="3">
         <v>14200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E10" s="3">
         <v>6000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1137,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1163,8 +1182,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1173,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>6500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>300</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1196,8 +1215,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1208,7 +1230,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
@@ -1264,8 +1286,11 @@
       <c r="X15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E17" s="3">
         <v>17300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>16200</v>
       </c>
       <c r="L17" s="3">
         <v>16200</v>
       </c>
       <c r="M17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="N17" s="3">
         <v>14800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2400</v>
       </c>
       <c r="L18" s="3">
         <v>2400</v>
       </c>
       <c r="M18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,23 +1481,24 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1479,14 +1512,14 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1506,19 +1539,22 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1526,67 +1562,70 @@
         <v>3300</v>
       </c>
       <c r="E21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F21" s="3">
         <v>3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>2800</v>
       </c>
       <c r="L21" s="3">
         <v>2800</v>
       </c>
       <c r="M21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N21" s="3">
         <v>1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1620,8 +1659,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1636,7 +1675,7 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1653,8 +1692,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1662,67 +1704,70 @@
         <v>3000</v>
       </c>
       <c r="E23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F23" s="3">
         <v>3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2400</v>
       </c>
       <c r="L23" s="3">
         <v>2400</v>
       </c>
       <c r="M23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1733,64 +1778,67 @@
         <v>600</v>
       </c>
       <c r="F24" s="3">
+        <v>600</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
       </c>
       <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>500</v>
       </c>
       <c r="O24" s="3">
         <v>500</v>
       </c>
       <c r="P24" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>600</v>
       </c>
       <c r="S24" s="3">
         <v>600</v>
       </c>
       <c r="T24" s="3">
+        <v>600</v>
+      </c>
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,8 +1905,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1866,67 +1917,70 @@
         <v>2400</v>
       </c>
       <c r="E26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,67 +1988,70 @@
         <v>2400</v>
       </c>
       <c r="E27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2090,8 +2150,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2108,14 +2168,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-400</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2129,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,23 +2331,26 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2295,14 +2364,14 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2322,19 +2391,22 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2342,67 +2414,70 @@
         <v>2400</v>
       </c>
       <c r="E33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,8 +2544,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2478,140 +2556,146 @@
         <v>2400</v>
       </c>
       <c r="E35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44556</v>
+      </c>
+      <c r="E38" s="2">
         <v>44465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44374</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44283</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44192</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44010</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43919</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43828</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43737</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43464</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43282</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43191</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43009</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42918</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42827</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42736</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,49 +2747,50 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
@@ -2713,25 +2799,28 @@
         <v>200</v>
       </c>
       <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,185 +2887,194 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E43" s="3">
         <v>18500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>18800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>18500</v>
-      </c>
-      <c r="S43" s="3">
-        <v>12800</v>
       </c>
       <c r="T43" s="3">
         <v>12800</v>
       </c>
       <c r="U43" s="3">
+        <v>12800</v>
+      </c>
+      <c r="V43" s="3">
         <v>13100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>15600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>14500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E44" s="3">
         <v>24200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>22000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>20300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>22800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>17700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>19500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>22200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>19800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>20800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>19800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>22800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>16800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>15600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>15800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>16400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1300</v>
       </c>
       <c r="Q45" s="3">
         <v>1300</v>
@@ -2985,93 +3083,99 @@
         <v>1300</v>
       </c>
       <c r="S45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T45" s="3">
         <v>2100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
-      </c>
-      <c r="U45" s="3">
-        <v>1800</v>
       </c>
       <c r="V45" s="3">
         <v>1800</v>
       </c>
       <c r="W45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X45" s="3">
         <v>3200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E46" s="3">
         <v>45300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>45100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>41500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>45500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>40200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>37000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>37500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>37900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>39800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>37800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>33900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>42300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>41100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>48400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,43 +3242,46 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1900</v>
       </c>
       <c r="O48" s="3">
         <v>1900</v>
@@ -3183,99 +3290,105 @@
         <v>1900</v>
       </c>
       <c r="Q48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R48" s="3">
         <v>1700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>400</v>
-      </c>
-      <c r="W48" s="3">
-        <v>500</v>
       </c>
       <c r="X48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E49" s="3">
         <v>10000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>13800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3419,67 +3538,70 @@
         <v>500</v>
       </c>
       <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
       </c>
       <c r="M52" s="3">
+        <v>400</v>
+      </c>
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
-      </c>
-      <c r="O52" s="3">
-        <v>500</v>
       </c>
       <c r="P52" s="3">
         <v>500</v>
       </c>
       <c r="Q52" s="3">
+        <v>500</v>
+      </c>
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>800</v>
-      </c>
-      <c r="T52" s="3">
-        <v>1300</v>
       </c>
       <c r="U52" s="3">
         <v>1300</v>
       </c>
       <c r="V52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W52" s="3">
         <v>1400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E54" s="3">
         <v>60600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>61300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>58100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>65800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>64400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>59700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>54800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>54300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>53400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>55100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>48700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>48200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>47200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>54800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E57" s="3">
         <v>7500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8900</v>
-      </c>
-      <c r="T57" s="3">
-        <v>5400</v>
       </c>
       <c r="U57" s="3">
         <v>5400</v>
       </c>
       <c r="V57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W57" s="3">
         <v>5100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3746,19 +3879,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -3775,8 +3908,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3802,144 +3935,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4900</v>
-      </c>
-      <c r="N59" s="3">
-        <v>3500</v>
       </c>
       <c r="O59" s="3">
         <v>3500</v>
       </c>
       <c r="P59" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="Q59" s="3">
         <v>2600</v>
       </c>
       <c r="R59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S59" s="3">
         <v>3000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E60" s="3">
         <v>12500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>16100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3953,20 +4095,20 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3974,26 +4116,26 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>4500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2300</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4006,52 +4148,55 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1200</v>
       </c>
       <c r="O62" s="3">
         <v>1200</v>
       </c>
       <c r="P62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1000</v>
       </c>
       <c r="R62" s="3">
         <v>1000</v>
@@ -4060,10 +4205,10 @@
         <v>1000</v>
       </c>
       <c r="T62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U62" s="3">
         <v>800</v>
-      </c>
-      <c r="U62" s="3">
-        <v>700</v>
       </c>
       <c r="V62" s="3">
         <v>700</v>
@@ -4072,10 +4217,13 @@
         <v>700</v>
       </c>
       <c r="X62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E66" s="3">
         <v>15000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E72" s="3">
         <v>5600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E76" s="3">
         <v>45600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>42400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>45500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>43700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>42400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>42700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>39300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>38700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>38900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>38800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>38900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>38100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,81 +5240,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44556</v>
+      </c>
+      <c r="E80" s="2">
         <v>44465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44374</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44283</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44192</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44010</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43919</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43828</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43737</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43464</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43282</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43191</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43009</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42918</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42827</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42736</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5134,67 +5328,70 @@
         <v>2400</v>
       </c>
       <c r="E81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5231,7 +5429,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -5264,19 +5462,19 @@
         <v>400</v>
       </c>
       <c r="Q83" s="3">
+        <v>400</v>
+      </c>
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>400</v>
-      </c>
-      <c r="S83" s="3">
-        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
       </c>
       <c r="U83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
@@ -5287,8 +5485,11 @@
       <c r="X83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,52 +5940,53 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -5775,22 +5995,25 @@
         <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-200</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
       </c>
       <c r="P94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T94" s="3">
         <v>-6600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6031,22 +6264,22 @@
         <v>-800</v>
       </c>
       <c r="F96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G96" s="3">
         <v>-3400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-800</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-800</v>
       </c>
       <c r="L96" s="3">
         <v>-800</v>
@@ -6079,16 +6312,19 @@
         <v>-800</v>
       </c>
       <c r="V96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W96" s="3">
         <v>-4800</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-800</v>
       </c>
       <c r="X96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6303,19 +6548,19 @@
         <v>-800</v>
       </c>
       <c r="F100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G100" s="3">
         <v>-3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-800</v>
       </c>
       <c r="K100" s="3">
         <v>-800</v>
@@ -6324,43 +6569,46 @@
         <v>-800</v>
       </c>
       <c r="M100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N100" s="3">
         <v>-5300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4900</v>
-      </c>
-      <c r="W100" s="3">
-        <v>-800</v>
       </c>
       <c r="X100" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>CRWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,347 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F7" s="2">
         <v>44556</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44374</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44283</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44192</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44101</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44010</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43919</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43828</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43737</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43464</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43282</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43191</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43009</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42918</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42827</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42736</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>25700</v>
+      </c>
+      <c r="F8" s="3">
         <v>22700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>20200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>18700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>21800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>19500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>21700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>16200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>20300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>18600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>18600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>15900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>21700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>18700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>20500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>15500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>22700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>17500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>16500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>13600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>17300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>17300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F9" s="3">
         <v>16600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>14200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>14100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>16000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>13300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>14600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>15000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>12800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>12700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>15500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>13100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>14200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>11300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>16800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>12200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>11400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>10000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>12100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>11600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F10" s="3">
         <v>6100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>4600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>6200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>6200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>6300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>4200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>5900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>5300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>5100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>3600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>5200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>5700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1031,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1104,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1181,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1159,16 +1199,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>2200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1185,32 +1225,32 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>6500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>300</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1218,8 +1258,14 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,10 +1279,10 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
@@ -1289,8 +1335,14 @@
       <c r="Y15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1365,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F17" s="3">
         <v>19700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>17300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>15400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>21800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>16700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>18400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>18500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>16200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>14800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>19700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>16500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>18000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>15000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>20700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>15900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>15200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>12900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>14700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>14200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>3100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,16 +1548,18 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1503,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1515,17 +1583,17 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1542,113 +1610,125 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="E21" s="3">
         <v>3300</v>
       </c>
       <c r="F21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H21" s="3">
         <v>3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>3700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>2900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>3300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1662,11 +1742,11 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1678,10 +1758,10 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1695,84 +1775,96 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="E23" s="3">
         <v>3000</v>
       </c>
       <c r="F23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H23" s="3">
         <v>3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>3100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
         <v>600</v>
@@ -1781,64 +1873,70 @@
         <v>600</v>
       </c>
       <c r="G24" s="3">
-        <v>-200</v>
+        <v>600</v>
       </c>
       <c r="H24" s="3">
         <v>600</v>
       </c>
       <c r="I24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>600</v>
+      </c>
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>600</v>
-      </c>
-      <c r="R24" s="3">
-        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>600</v>
       </c>
       <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
+        <v>600</v>
+      </c>
+      <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>1100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2006,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="E26" s="3">
         <v>2400</v>
       </c>
       <c r="F26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="E27" s="3">
         <v>2400</v>
       </c>
       <c r="F27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2237,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,11 +2275,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2171,17 +2293,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-400</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2192,8 +2314,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2391,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,16 +2468,22 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2355,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2367,17 +2507,17 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2394,90 +2534,102 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="E33" s="3">
         <v>2400</v>
       </c>
       <c r="F33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
-      </c>
-      <c r="T33" s="3">
-        <v>500</v>
-      </c>
-      <c r="U33" s="3">
-        <v>700</v>
       </c>
       <c r="V33" s="3">
         <v>500</v>
       </c>
       <c r="W33" s="3">
+        <v>700</v>
+      </c>
+      <c r="X33" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y33" s="3">
         <v>1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2699,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="E35" s="3">
         <v>2400</v>
       </c>
       <c r="F35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
-      </c>
-      <c r="T35" s="3">
-        <v>500</v>
-      </c>
-      <c r="U35" s="3">
-        <v>700</v>
       </c>
       <c r="V35" s="3">
         <v>500</v>
       </c>
       <c r="W35" s="3">
+        <v>700</v>
+      </c>
+      <c r="X35" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y35" s="3">
         <v>1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F38" s="2">
         <v>44556</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44374</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44283</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44192</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44101</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44010</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43919</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43828</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43737</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43464</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43282</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43191</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43009</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42918</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42827</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42736</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2891,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2920,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
       </c>
       <c r="T41" s="3">
+        <v>200</v>
+      </c>
+      <c r="U41" s="3">
+        <v>200</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>11900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>7900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>14400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,292 +3070,322 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F43" s="3">
         <v>21000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>18500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>17500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>19300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>18200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>18800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>15100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>17800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>15500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>14200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>12500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>17800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>15000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>16700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>14600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>18500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>12800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>12800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>13100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>15600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>14500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F44" s="3">
         <v>24500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>24200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>22000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>20300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>22800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>19200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>17300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>17700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>23600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>21900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>20400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>19500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>22200</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>19800</v>
-      </c>
-      <c r="R44" s="3">
-        <v>20800</v>
       </c>
       <c r="S44" s="3">
         <v>19800</v>
       </c>
       <c r="T44" s="3">
+        <v>20800</v>
+      </c>
+      <c r="U44" s="3">
+        <v>19800</v>
+      </c>
+      <c r="V44" s="3">
         <v>22800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>16800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>15600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>15800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>16400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1300</v>
       </c>
       <c r="S45" s="3">
         <v>1300</v>
       </c>
       <c r="T45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V45" s="3">
         <v>2100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>3200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>46500</v>
+      </c>
+      <c r="F46" s="3">
         <v>48900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>45300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>45100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>41500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>46900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>45500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>40200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>37000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>41600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>37300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>37500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>38700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>38800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>37900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>36800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>39800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>37800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>33900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>42300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>41100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>48400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,150 +3455,168 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F48" s="3">
         <v>4200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>6600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>6000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1900</v>
       </c>
       <c r="Q48" s="3">
         <v>1900</v>
       </c>
       <c r="R48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T48" s="3">
         <v>1700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1500</v>
-      </c>
-      <c r="V48" s="3">
-        <v>500</v>
-      </c>
-      <c r="W48" s="3">
-        <v>400</v>
       </c>
       <c r="X48" s="3">
         <v>500</v>
       </c>
       <c r="Y48" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F49" s="3">
         <v>9900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>10000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>10200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>10300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>12100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>12300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>12900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>13100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>13300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>13600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>13800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>14000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>14200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>14400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>14600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>12100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>4100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>4300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>4400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3686,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3763,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1300</v>
-      </c>
-      <c r="W52" s="3">
-        <v>1400</v>
-      </c>
-      <c r="X52" s="3">
-        <v>1500</v>
       </c>
       <c r="Y52" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3917,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>60200</v>
+      </c>
+      <c r="F54" s="3">
         <v>63500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>60600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>61300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>58100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>65800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>64400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>59700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>57200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>62200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>54100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>55000</v>
-      </c>
-      <c r="O54" s="3">
-        <v>54800</v>
       </c>
       <c r="P54" s="3">
         <v>55000</v>
       </c>
       <c r="Q54" s="3">
+        <v>54800</v>
+      </c>
+      <c r="R54" s="3">
+        <v>55000</v>
+      </c>
+      <c r="S54" s="3">
         <v>54300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>53400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>56600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>55100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>48700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>48200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>47200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>54800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4027,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,84 +4056,92 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F57" s="3">
         <v>7800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>8900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>6400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>7700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>6300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>7100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>8900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>5400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>5400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>5100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>7600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3882,22 +4150,22 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3911,11 +4179,11 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3938,150 +4206,168 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F59" s="3">
         <v>9800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>8500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F60" s="3">
         <v>17600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>12500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>14600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>12900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>17200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>12800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>14000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>11600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>9700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>13100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>9100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>8700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>7600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>16100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4098,50 +4384,50 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>4500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>9500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2300</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4151,79 +4437,91 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>5000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1000</v>
       </c>
       <c r="T62" s="3">
         <v>1000</v>
       </c>
       <c r="U62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W62" s="3">
         <v>800</v>
-      </c>
-      <c r="V62" s="3">
-        <v>700</v>
-      </c>
-      <c r="W62" s="3">
-        <v>700</v>
       </c>
       <c r="X62" s="3">
         <v>700</v>
       </c>
       <c r="Y62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4591,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4668,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4745,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F66" s="3">
         <v>19600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>15000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>17500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>16200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>23400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>18900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>14700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>20600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>13300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>13400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>14200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>14400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>14600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>17300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>16400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>9800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>8300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>16800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4855,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4928,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5005,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5082,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5159,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F72" s="3">
         <v>3700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>5600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>4100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>4000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5313,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5390,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5467,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45800</v>
+      </c>
+      <c r="F76" s="3">
         <v>43900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>45600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>43800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>41900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>42400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>45500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>43700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>42400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>41600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>42700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>41700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>41400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>40700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>39900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>38800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>39300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>38700</v>
-      </c>
-      <c r="U76" s="3">
-        <v>38900</v>
-      </c>
-      <c r="V76" s="3">
-        <v>38800</v>
       </c>
       <c r="W76" s="3">
         <v>38900</v>
       </c>
       <c r="X76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>38900</v>
+      </c>
+      <c r="Z76" s="3">
         <v>38100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5621,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F80" s="2">
         <v>44556</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44374</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44283</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44192</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44101</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44010</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43919</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43828</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43737</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43464</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43282</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43191</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43009</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42918</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42827</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42736</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="E81" s="3">
         <v>2400</v>
       </c>
       <c r="F81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
-      </c>
-      <c r="T81" s="3">
-        <v>500</v>
-      </c>
-      <c r="U81" s="3">
-        <v>700</v>
       </c>
       <c r="V81" s="3">
         <v>500</v>
       </c>
       <c r="W81" s="3">
+        <v>700</v>
+      </c>
+      <c r="X81" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y81" s="3">
         <v>1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5813,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5432,10 +5830,10 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -5465,7 +5863,7 @@
         <v>400</v>
       </c>
       <c r="R83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S83" s="3">
         <v>400</v>
@@ -5474,13 +5872,13 @@
         <v>300</v>
       </c>
       <c r="U83" s="3">
+        <v>400</v>
+      </c>
+      <c r="V83" s="3">
         <v>300</v>
       </c>
-      <c r="V83" s="3">
-        <v>200</v>
-      </c>
       <c r="W83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X83" s="3">
         <v>200</v>
@@ -5488,8 +5886,14 @@
       <c r="Y83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5963,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6040,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6117,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6194,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6271,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>5000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>7900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>8700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>6600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-6200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>4900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-1600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>5000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6381,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5959,13 +6401,13 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>-300</v>
-      </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
@@ -5974,7 +6416,7 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -5983,22 +6425,22 @@
         <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
@@ -6012,8 +6454,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6531,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6608,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6163,7 +6623,7 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -6172,13 +6632,13 @@
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>-300</v>
-      </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-300</v>
@@ -6187,7 +6647,7 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
@@ -6196,28 +6656,28 @@
         <v>-200</v>
       </c>
       <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-6600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-8800</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
@@ -6225,8 +6685,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6718,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6261,31 +6729,31 @@
         <v>-800</v>
       </c>
       <c r="E96" s="3">
-        <v>-800</v>
+        <v>-4300</v>
       </c>
       <c r="F96" s="3">
         <v>-800</v>
       </c>
       <c r="G96" s="3">
-        <v>-3400</v>
+        <v>-800</v>
       </c>
       <c r="H96" s="3">
         <v>-800</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="J96" s="3">
         <v>-800</v>
       </c>
       <c r="K96" s="3">
-        <v>-3400</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-800</v>
       </c>
       <c r="M96" s="3">
-        <v>-800</v>
+        <v>-3400</v>
       </c>
       <c r="N96" s="3">
         <v>-800</v>
@@ -6315,16 +6783,22 @@
         <v>-800</v>
       </c>
       <c r="W96" s="3">
-        <v>-4800</v>
+        <v>-800</v>
       </c>
       <c r="X96" s="3">
         <v>-800</v>
       </c>
       <c r="Y96" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6868,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6945,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +7022,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E100" s="3">
-        <v>-800</v>
+        <v>-4300</v>
       </c>
       <c r="F100" s="3">
         <v>-800</v>
       </c>
       <c r="G100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I100" s="3">
         <v>-3500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1400</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-800</v>
       </c>
       <c r="M100" s="3">
         <v>-800</v>
       </c>
       <c r="N100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P100" s="3">
         <v>-5300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-6500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>6300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-4900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +7176,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-8700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>4000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-6500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>4200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>CRWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,373 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44836</v>
+      </c>
+      <c r="F7" s="2">
         <v>44745</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44654</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44556</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44374</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44283</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44192</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44010</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43919</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43828</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43737</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43464</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43282</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43191</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43009</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42918</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42827</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42736</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F8" s="3">
         <v>15700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>25700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>22700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>20200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>18700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>21800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>19500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>21700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>16200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>20300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>18600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>18600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>15900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>21700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>18700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>20500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>15500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>22700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>17500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>16500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>13600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>17300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>17300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F9" s="3">
         <v>10600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>19300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>16600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>14200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>14100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>16000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>13300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>14600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>15000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>12800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>12700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>15500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>13100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>14200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>11300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>16800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>12200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>11400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>10000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>12100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>11600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F10" s="3">
         <v>5100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>6100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>6000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>4600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>6200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>5600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>6300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>4200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>5900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>5300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>5100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>3600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>5200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>5700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1059,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1138,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1221,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1205,16 +1245,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1231,32 +1271,32 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>6500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>300</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1264,8 +1304,14 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1285,10 +1331,10 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
@@ -1341,8 +1387,14 @@
       <c r="AA15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,85 +1419,93 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F17" s="3">
         <v>13900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>22700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>19700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>17300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>15400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>21800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>18400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>14600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>18500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>16200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>16200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>14800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>19700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>16500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>18000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>15000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>20700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>15900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>15200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>12900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>14700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>14200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1453,76 +1513,82 @@
         <v>1800</v>
       </c>
       <c r="E18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G18" s="3">
         <v>3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>2000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>2600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>3100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,22 +1616,24 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1577,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1589,17 +1657,17 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1616,96 +1684,108 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F21" s="3">
         <v>2200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3300</v>
       </c>
       <c r="G21" s="3">
         <v>3300</v>
       </c>
       <c r="H21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J21" s="3">
         <v>3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>2300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>2900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>3300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1730,11 +1810,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1748,11 +1828,11 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1764,10 +1844,10 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1781,96 +1861,108 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F23" s="3">
         <v>1900</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3000</v>
       </c>
       <c r="G23" s="3">
         <v>3000</v>
       </c>
       <c r="H23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J23" s="3">
         <v>3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>2700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>3100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>700</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
-      </c>
-      <c r="E24" s="3">
-        <v>600</v>
-      </c>
-      <c r="F24" s="3">
-        <v>600</v>
       </c>
       <c r="G24" s="3">
         <v>600</v>
@@ -1879,64 +1971,70 @@
         <v>600</v>
       </c>
       <c r="I24" s="3">
-        <v>-200</v>
+        <v>600</v>
       </c>
       <c r="J24" s="3">
         <v>600</v>
       </c>
       <c r="K24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L24" s="3">
+        <v>600</v>
+      </c>
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
-      </c>
-      <c r="S24" s="3">
-        <v>600</v>
-      </c>
-      <c r="T24" s="3">
-        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>600</v>
       </c>
       <c r="V24" s="3">
+        <v>100</v>
+      </c>
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>1100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>1200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2110,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2400</v>
       </c>
       <c r="G26" s="3">
         <v>2400</v>
       </c>
       <c r="H26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J26" s="3">
         <v>2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1400</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2400</v>
       </c>
       <c r="G27" s="3">
         <v>2400</v>
       </c>
       <c r="H27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J27" s="3">
         <v>2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2359,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2281,11 +2403,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2299,17 +2421,17 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-400</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2320,8 +2442,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2525,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,22 +2608,28 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2501,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2513,17 +2653,17 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2540,96 +2680,108 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1400</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2400</v>
       </c>
       <c r="G33" s="3">
         <v>2400</v>
       </c>
       <c r="H33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J33" s="3">
         <v>2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>500</v>
-      </c>
-      <c r="W33" s="3">
-        <v>700</v>
       </c>
       <c r="X33" s="3">
         <v>500</v>
       </c>
       <c r="Y33" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA33" s="3">
         <v>1600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>1900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2857,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1400</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2400</v>
       </c>
       <c r="G35" s="3">
         <v>2400</v>
       </c>
       <c r="H35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J35" s="3">
         <v>2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>500</v>
-      </c>
-      <c r="W35" s="3">
-        <v>700</v>
       </c>
       <c r="X35" s="3">
         <v>500</v>
       </c>
       <c r="Y35" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA35" s="3">
         <v>1600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>1900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44836</v>
+      </c>
+      <c r="F38" s="2">
         <v>44745</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44654</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44556</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44374</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44283</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44192</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44010</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43919</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43828</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43737</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43464</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43282</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43191</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43009</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42918</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42736</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3063,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3094,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>200</v>
-      </c>
-      <c r="T41" s="3">
-        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
       </c>
       <c r="V41" s="3">
+        <v>200</v>
+      </c>
+      <c r="W41" s="3">
+        <v>200</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>11900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>7900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>14400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,316 +3256,346 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E43" s="3">
         <v>17600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>17600</v>
+      </c>
+      <c r="G43" s="3">
         <v>23200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>21000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>18500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>17500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>19300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>18200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>18800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>15100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>17800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>15500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>14200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>12500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>17800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>15000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>16700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>14600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>18500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>12800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>12800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>13100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>15600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>14500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>27700</v>
+      </c>
+      <c r="F44" s="3">
         <v>26400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>20700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>24500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>24200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>22000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>20300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>22800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>19200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>17300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>17700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>23600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>21900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>20400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>19500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>22200</v>
-      </c>
-      <c r="S44" s="3">
-        <v>19800</v>
-      </c>
-      <c r="T44" s="3">
-        <v>20800</v>
       </c>
       <c r="U44" s="3">
         <v>19800</v>
       </c>
       <c r="V44" s="3">
+        <v>20800</v>
+      </c>
+      <c r="W44" s="3">
+        <v>19800</v>
+      </c>
+      <c r="X44" s="3">
         <v>22800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>16800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>15600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>15800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>16400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1600</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="T45" s="3">
-        <v>1300</v>
       </c>
       <c r="U45" s="3">
         <v>1300</v>
       </c>
       <c r="V45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X45" s="3">
         <v>2100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>3200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>48800</v>
+      </c>
+      <c r="F46" s="3">
         <v>49400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>46500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>48900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>45300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>45100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>41500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>46900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>45500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>40200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>37000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>41600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>37300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>37500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>38700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>38800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>37900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>36800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>39800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>37800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>33900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>42300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>41100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>48400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,162 +3671,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F48" s="3">
         <v>3400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1900</v>
       </c>
       <c r="S48" s="3">
         <v>1900</v>
       </c>
       <c r="T48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V48" s="3">
         <v>1700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1500</v>
-      </c>
-      <c r="X48" s="3">
-        <v>500</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>400</v>
       </c>
       <c r="Z48" s="3">
         <v>500</v>
       </c>
       <c r="AA48" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F49" s="3">
         <v>9700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>9800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>9900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>10000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>10200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>10300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>12500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>12700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>13100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>13300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>13600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>13800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>14000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>14200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>14400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>14600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>12100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>4100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>4300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>4400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3920,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +4003,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3781,73 +4021,79 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>1500</v>
       </c>
       <c r="AA52" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4169,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>61400</v>
+      </c>
+      <c r="F54" s="3">
         <v>62600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>60200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>63500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>60600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>61300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>58100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>65800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>64400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>59700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>57200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>62200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>54100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>55000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>54800</v>
       </c>
       <c r="R54" s="3">
         <v>55000</v>
       </c>
       <c r="S54" s="3">
+        <v>54800</v>
+      </c>
+      <c r="T54" s="3">
+        <v>55000</v>
+      </c>
+      <c r="U54" s="3">
         <v>54300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>53400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>56600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>55100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>48700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>48200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>47200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>54800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4287,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,96 +4318,104 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F57" s="3">
         <v>9500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>7500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>7900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>7700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>6300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>7100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>8900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>5400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>5400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>5100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>7600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4156,22 +4424,22 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -4185,11 +4453,11 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4212,162 +4480,180 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F59" s="3">
         <v>3800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>4200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>8500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F60" s="3">
         <v>13300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>17600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>12500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>14600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>12900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>17200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>12800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>14000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>11200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>8900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>9700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>6800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>13100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>9100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>8700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>7600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>16100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4390,50 +4676,50 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>4500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>3800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>9500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2300</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4443,85 +4729,97 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E62" s="3">
         <v>2600</v>
       </c>
       <c r="F62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>5700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1100</v>
-      </c>
-      <c r="T62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U62" s="3">
-        <v>1000</v>
       </c>
       <c r="V62" s="3">
         <v>1000</v>
       </c>
       <c r="W62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y62" s="3">
         <v>800</v>
-      </c>
-      <c r="X62" s="3">
-        <v>700</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>700</v>
       </c>
       <c r="Z62" s="3">
         <v>700</v>
       </c>
       <c r="AA62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4895,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4978,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +5061,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F66" s="3">
         <v>15900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>14400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>17500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>16200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>23400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>16000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>20600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>13300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>13400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>14200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>14400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>14600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>17300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>16400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>9800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>9400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>8300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>16800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5179,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5258,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5341,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5424,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5507,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F72" s="3">
         <v>6000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>5400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>5600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>4100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5673,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5756,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5839,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>48200</v>
+      </c>
+      <c r="F76" s="3">
         <v>46700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>45800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>43900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>45600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>43800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>41900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>42400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>45500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>43700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>42400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>41600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>42700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>41700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>41400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>40700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>39900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>38800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>39300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>38700</v>
-      </c>
-      <c r="W76" s="3">
-        <v>38900</v>
-      </c>
-      <c r="X76" s="3">
-        <v>38800</v>
       </c>
       <c r="Y76" s="3">
         <v>38900</v>
       </c>
       <c r="Z76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>38900</v>
+      </c>
+      <c r="AB76" s="3">
         <v>38100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +6005,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44836</v>
+      </c>
+      <c r="F80" s="2">
         <v>44745</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44654</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44556</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44374</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44283</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44192</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44101</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44010</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43919</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43828</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43737</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43464</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43282</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43191</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43009</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42918</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42827</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42736</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1400</v>
-      </c>
-      <c r="E81" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>2400</v>
       </c>
       <c r="G81" s="3">
         <v>2400</v>
       </c>
       <c r="H81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J81" s="3">
         <v>2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>500</v>
-      </c>
-      <c r="W81" s="3">
-        <v>700</v>
       </c>
       <c r="X81" s="3">
         <v>500</v>
       </c>
       <c r="Y81" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA81" s="3">
         <v>1600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>1900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6211,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5836,10 +6234,10 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -5869,7 +6267,7 @@
         <v>400</v>
       </c>
       <c r="T83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U83" s="3">
         <v>400</v>
@@ -5878,13 +6276,13 @@
         <v>300</v>
       </c>
       <c r="W83" s="3">
+        <v>400</v>
+      </c>
+      <c r="X83" s="3">
         <v>300</v>
       </c>
-      <c r="X83" s="3">
-        <v>200</v>
-      </c>
       <c r="Y83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z83" s="3">
         <v>200</v>
@@ -5892,8 +6290,14 @@
       <c r="AA83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6373,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6456,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6539,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6622,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6705,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>7900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>8700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>3400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>6600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-6200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>2000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>4900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>5000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,16 +6823,18 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -6407,13 +6849,13 @@
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>-300</v>
-      </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-300</v>
@@ -6422,7 +6864,7 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
@@ -6431,22 +6873,22 @@
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
@@ -6460,8 +6902,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6985,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,13 +7068,19 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -6629,7 +7089,7 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -6638,13 +7098,13 @@
         <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>-300</v>
-      </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-300</v>
@@ -6653,7 +7113,7 @@
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
@@ -6662,28 +7122,28 @@
         <v>-200</v>
       </c>
       <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-6600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-8800</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
@@ -6691,8 +7151,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +7186,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6729,37 +7197,37 @@
         <v>-800</v>
       </c>
       <c r="E96" s="3">
-        <v>-4300</v>
+        <v>-800</v>
       </c>
       <c r="F96" s="3">
         <v>-800</v>
       </c>
       <c r="G96" s="3">
-        <v>-800</v>
+        <v>-4300</v>
       </c>
       <c r="H96" s="3">
         <v>-800</v>
       </c>
       <c r="I96" s="3">
-        <v>-3400</v>
+        <v>-800</v>
       </c>
       <c r="J96" s="3">
         <v>-800</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="L96" s="3">
         <v>-800</v>
       </c>
       <c r="M96" s="3">
-        <v>-3400</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-800</v>
       </c>
       <c r="O96" s="3">
-        <v>-800</v>
+        <v>-3400</v>
       </c>
       <c r="P96" s="3">
         <v>-800</v>
@@ -6789,16 +7257,22 @@
         <v>-800</v>
       </c>
       <c r="Y96" s="3">
-        <v>-4800</v>
+        <v>-800</v>
       </c>
       <c r="Z96" s="3">
         <v>-800</v>
       </c>
       <c r="AA96" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7348,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7431,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7514,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-4300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-800</v>
       </c>
       <c r="H100" s="3">
         <v>-800</v>
       </c>
       <c r="I100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-800</v>
       </c>
       <c r="O100" s="3">
         <v>-800</v>
       </c>
       <c r="P100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R100" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-3300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-6500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>6300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7680,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F102" s="3">
         <v>2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>6400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-3100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-8700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>4000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>4200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,373 +665,398 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45018</v>
+      </c>
+      <c r="F7" s="2">
         <v>44927</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44836</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44745</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44654</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44556</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44374</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44283</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44192</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44101</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44010</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43919</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43828</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43737</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43464</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43282</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43191</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43009</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42918</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42827</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42736</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F8" s="3">
         <v>19000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>18700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>15700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>25700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>22700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>20200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>18700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>21800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>19500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>21700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>16200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>20300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>18600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>18600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>15900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>21700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>18700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>20500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>15500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>22700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>17500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>16500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>13600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>17300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>17300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F9" s="3">
         <v>14500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>13300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>10600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>19300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>16600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>14200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>14100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>16000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>13300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>14600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>15000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>12800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>12700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>11400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>15500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>13100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>14200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>11300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>16800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>12200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>11400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>10000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>12100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>11600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F10" s="3">
         <v>4500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>6400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>6100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>6000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>7100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>5800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>5900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>4500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>6200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>5600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>6300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>4200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>5900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>5300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>5100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>3600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>5200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>5700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,8 +1086,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1144,8 +1171,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,8 +1260,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1251,16 +1290,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2200</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1277,32 +1316,32 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>6500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>300</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
@@ -1310,13 +1349,19 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>100</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1337,10 +1382,10 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>200</v>
@@ -1393,8 +1438,14 @@
       <c r="AC15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1421,174 +1472,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F17" s="3">
         <v>17200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>16000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>13900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>22700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>19700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>17300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>21800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>18400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>14600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>18500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>16200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>16200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>14800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>19700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>16500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>18000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>15000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>20700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>15900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>15200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>12900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>14700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>14200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="E18" s="3">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="F18" s="3">
         <v>1800</v>
       </c>
       <c r="G18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I18" s="3">
         <v>3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>2500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>2600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>3100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1618,28 +1683,30 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1651,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1663,17 +1730,17 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1690,102 +1757,114 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>2200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3300</v>
       </c>
       <c r="I21" s="3">
         <v>3300</v>
       </c>
       <c r="J21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L21" s="3">
         <v>3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>2900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>2300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>2900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>3300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1816,11 +1895,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1834,11 +1913,11 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1850,10 +1929,10 @@
         <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1867,108 +1946,120 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3000</v>
       </c>
       <c r="I23" s="3">
         <v>3000</v>
       </c>
       <c r="J23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L23" s="3">
         <v>3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>2700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>3100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>600</v>
       </c>
       <c r="I24" s="3">
         <v>600</v>
@@ -1977,64 +2068,70 @@
         <v>600</v>
       </c>
       <c r="K24" s="3">
-        <v>-200</v>
+        <v>600</v>
       </c>
       <c r="L24" s="3">
         <v>600</v>
       </c>
       <c r="M24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>600</v>
+      </c>
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
-      </c>
-      <c r="U24" s="3">
-        <v>600</v>
-      </c>
-      <c r="V24" s="3">
-        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>600</v>
       </c>
       <c r="X24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA24" s="3">
         <v>500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>1100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>1200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2116,174 +2213,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2400</v>
       </c>
       <c r="I26" s="3">
         <v>2400</v>
       </c>
       <c r="J26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L26" s="3">
         <v>2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>1600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>1900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2400</v>
       </c>
       <c r="I27" s="3">
         <v>2400</v>
       </c>
       <c r="J27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>1900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2365,8 +2480,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2409,11 +2530,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2427,17 +2548,17 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2448,8 +2569,14 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2531,8 +2658,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2614,28 +2747,34 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2647,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2659,17 +2798,17 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2686,102 +2825,114 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2400</v>
       </c>
       <c r="I33" s="3">
         <v>2400</v>
       </c>
       <c r="J33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1200</v>
-      </c>
-      <c r="X33" s="3">
-        <v>500</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>700</v>
       </c>
       <c r="Z33" s="3">
         <v>500</v>
       </c>
       <c r="AA33" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC33" s="3">
         <v>1600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>1900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2863,179 +3014,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>800</v>
+      </c>
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2400</v>
       </c>
       <c r="I35" s="3">
         <v>2400</v>
       </c>
       <c r="J35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1200</v>
-      </c>
-      <c r="X35" s="3">
-        <v>500</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>700</v>
       </c>
       <c r="Z35" s="3">
         <v>500</v>
       </c>
       <c r="AA35" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC35" s="3">
         <v>1600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>1900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45018</v>
+      </c>
+      <c r="F38" s="2">
         <v>44927</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44836</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44745</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44654</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44556</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44374</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44283</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44192</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44101</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44010</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43919</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43828</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43737</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43464</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43282</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43191</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43009</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42918</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42827</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42736</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3065,8 +3234,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3096,91 +3267,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F41" s="3">
         <v>3100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
-      </c>
-      <c r="U41" s="3">
-        <v>200</v>
-      </c>
-      <c r="V41" s="3">
-        <v>200</v>
       </c>
       <c r="W41" s="3">
         <v>200</v>
       </c>
       <c r="X41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>3200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>11900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>7900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>14400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3262,340 +3441,370 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F43" s="3">
         <v>18900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>17600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>17600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>23200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>21000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>18500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>17500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>19300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>18200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>18800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>15100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>17800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>15500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>14200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>12500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>17800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>15000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>16700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>14600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>18500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>12800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>12800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>13100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>15600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>14500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F44" s="3">
         <v>25800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>27700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>26400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>20700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>24500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>24200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>22000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>20300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>22800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>19200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>17300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>17700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>23600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>21900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>20400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>19500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>22200</v>
-      </c>
-      <c r="U44" s="3">
-        <v>19800</v>
-      </c>
-      <c r="V44" s="3">
-        <v>20800</v>
       </c>
       <c r="W44" s="3">
         <v>19800</v>
       </c>
       <c r="X44" s="3">
+        <v>20800</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>19800</v>
+      </c>
+      <c r="Z44" s="3">
         <v>22800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>16800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>15600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>15800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>16400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1600</v>
-      </c>
-      <c r="U45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="V45" s="3">
-        <v>1300</v>
       </c>
       <c r="W45" s="3">
         <v>1300</v>
       </c>
       <c r="X45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z45" s="3">
         <v>2100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>1800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>1800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>3200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F46" s="3">
         <v>49200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>48800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>49400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>46500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>48900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>45300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>45100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>41500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>46900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>45500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>40200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>37000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>41600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>37300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>37500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>38700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>38800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>37900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>36800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>39800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>37800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>33900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>42300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>41100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>48400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3677,174 +3886,192 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3400</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1900</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1900</v>
       </c>
       <c r="U48" s="3">
         <v>1900</v>
       </c>
       <c r="V48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X48" s="3">
         <v>1700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1500</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>500</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>400</v>
       </c>
       <c r="AB48" s="3">
         <v>500</v>
       </c>
       <c r="AC48" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F49" s="3">
         <v>9400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>9500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>9700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>9800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>9900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>10000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>10200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>10300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>12100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>12300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>12700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>12900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>13100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>13300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>13600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>13800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>14000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>14200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>14400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>14600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>12100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>4100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>4300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>4400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3926,8 +4153,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4009,16 +4242,22 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -4027,73 +4266,79 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>1400</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>1500</v>
       </c>
       <c r="AC52" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4175,91 +4420,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>91000</v>
+      </c>
+      <c r="F54" s="3">
         <v>61400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>61400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>62600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>60200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>63500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>60600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>61300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>58100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>65800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>64400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>59700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>57200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>62200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>54100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>55000</v>
-      </c>
-      <c r="S54" s="3">
-        <v>54800</v>
       </c>
       <c r="T54" s="3">
         <v>55000</v>
       </c>
       <c r="U54" s="3">
+        <v>54800</v>
+      </c>
+      <c r="V54" s="3">
+        <v>55000</v>
+      </c>
+      <c r="W54" s="3">
         <v>54300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>53400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>56600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>55100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>48700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>48200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>47200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>54800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4289,8 +4546,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4320,102 +4579,110 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F57" s="3">
         <v>6400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>9500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>8900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>7900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>6400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>6700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>7700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>6300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>7100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>3800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>8900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>5400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>5400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>5100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>7600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4430,22 +4697,22 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -4459,11 +4726,11 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4486,182 +4753,200 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>4200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>3700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>3200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>2400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>8500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F60" s="3">
         <v>9900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>13300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>17600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>12500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>14600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>12900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>17200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>14000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>9700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>11600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>7700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>11200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>8900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>9700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>13100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>9100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>8700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>7600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>16100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4682,50 +4967,50 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>4500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>3800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>9500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2300</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -4735,91 +5020,103 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2600</v>
       </c>
       <c r="G62" s="3">
         <v>2600</v>
       </c>
       <c r="H62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>5000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>5400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>5700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>6600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1100</v>
-      </c>
-      <c r="V62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W62" s="3">
-        <v>1000</v>
       </c>
       <c r="X62" s="3">
         <v>1000</v>
       </c>
       <c r="Y62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA62" s="3">
         <v>800</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>700</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>700</v>
       </c>
       <c r="AB62" s="3">
         <v>700</v>
       </c>
       <c r="AC62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4901,8 +5198,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4984,8 +5287,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5067,91 +5376,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>41800</v>
+      </c>
+      <c r="F66" s="3">
         <v>12400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>15900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>19600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>17500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>16200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>23400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>18900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>16000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>14700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>20600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>11300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>13300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>13400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>14200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>14400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>14600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>17300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>16400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>9800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>9400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>8300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>16800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5181,8 +5502,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5264,8 +5587,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5347,8 +5676,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5430,8 +5765,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5513,91 +5854,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E72" s="3">
         <v>7800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G72" s="3">
         <v>7200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>6000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>5400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>5600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5679,8 +6032,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5762,8 +6121,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5845,8 +6210,14 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5854,82 +6225,88 @@
         <v>49000</v>
       </c>
       <c r="E76" s="3">
+        <v>49200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>49000</v>
+      </c>
+      <c r="G76" s="3">
         <v>48200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>46700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>45800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>43900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>45600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>43800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>41900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>42400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>45500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>43700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>42400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>41600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>42700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>41700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>41400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>40700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>39900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>38800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>39300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>38700</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>38900</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>38800</v>
       </c>
       <c r="AA76" s="3">
         <v>38900</v>
       </c>
       <c r="AB76" s="3">
+        <v>38800</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>38900</v>
+      </c>
+      <c r="AD76" s="3">
         <v>38100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6011,179 +6388,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45018</v>
+      </c>
+      <c r="F80" s="2">
         <v>44927</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44836</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44745</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44654</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44556</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44374</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44283</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44192</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44101</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44010</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43919</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43828</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43737</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43464</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43282</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43191</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43009</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42918</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42827</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42736</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>2400</v>
       </c>
       <c r="I81" s="3">
         <v>2400</v>
       </c>
       <c r="J81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1200</v>
-      </c>
-      <c r="X81" s="3">
-        <v>500</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>700</v>
       </c>
       <c r="Z81" s="3">
         <v>500</v>
       </c>
       <c r="AA81" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC81" s="3">
         <v>1600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>1900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6213,13 +6608,15 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -6240,10 +6637,10 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
@@ -6273,7 +6670,7 @@
         <v>400</v>
       </c>
       <c r="V83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W83" s="3">
         <v>400</v>
@@ -6282,13 +6679,13 @@
         <v>300</v>
       </c>
       <c r="Y83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z83" s="3">
         <v>300</v>
       </c>
-      <c r="Z83" s="3">
-        <v>200</v>
-      </c>
       <c r="AA83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB83" s="3">
         <v>200</v>
@@ -6296,8 +6693,14 @@
       <c r="AC83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6379,8 +6782,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6462,8 +6871,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6545,8 +6960,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6628,8 +7049,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6711,91 +7138,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F89" s="3">
         <v>1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>3500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>5000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>7900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>8700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>3400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>6600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-6200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>2000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>4900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>5000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6825,22 +7264,24 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -6855,13 +7296,13 @@
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>-300</v>
-      </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>-300</v>
@@ -6870,7 +7311,7 @@
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -6879,22 +7320,22 @@
         <v>-200</v>
       </c>
       <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W91" s="3">
         <v>-300</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-100</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>-100</v>
@@ -6908,8 +7349,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6991,8 +7438,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7074,19 +7527,25 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -7095,7 +7554,7 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -7104,13 +7563,13 @@
         <v>-200</v>
       </c>
       <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>-300</v>
-      </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O94" s="3">
         <v>-300</v>
@@ -7119,7 +7578,7 @@
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
@@ -7128,28 +7587,28 @@
         <v>-200</v>
       </c>
       <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-8800</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>0</v>
       </c>
       <c r="AB94" s="3">
         <v>-100</v>
@@ -7157,8 +7616,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7188,8 +7653,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7203,37 +7670,37 @@
         <v>-800</v>
       </c>
       <c r="G96" s="3">
-        <v>-4300</v>
+        <v>-800</v>
       </c>
       <c r="H96" s="3">
         <v>-800</v>
       </c>
       <c r="I96" s="3">
-        <v>-800</v>
+        <v>-4300</v>
       </c>
       <c r="J96" s="3">
         <v>-800</v>
       </c>
       <c r="K96" s="3">
-        <v>-3400</v>
+        <v>-800</v>
       </c>
       <c r="L96" s="3">
         <v>-800</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="N96" s="3">
         <v>-800</v>
       </c>
       <c r="O96" s="3">
-        <v>-3400</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-800</v>
       </c>
       <c r="Q96" s="3">
-        <v>-800</v>
+        <v>-3400</v>
       </c>
       <c r="R96" s="3">
         <v>-800</v>
@@ -7263,16 +7730,22 @@
         <v>-800</v>
       </c>
       <c r="AA96" s="3">
-        <v>-4800</v>
+        <v>-800</v>
       </c>
       <c r="AB96" s="3">
         <v>-800</v>
       </c>
       <c r="AC96" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7354,8 +7827,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7437,8 +7916,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7520,91 +8005,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-800</v>
       </c>
       <c r="J100" s="3">
         <v>-800</v>
       </c>
       <c r="K100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M100" s="3">
         <v>-3500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-800</v>
       </c>
       <c r="Q100" s="3">
         <v>-800</v>
       </c>
       <c r="R100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T100" s="3">
         <v>-5300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-3300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-6500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>6300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7686,87 +8183,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>6400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>3300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>4000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-6500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>4200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>CRWS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,398 +665,411 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E7" s="2">
         <v>45109</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45018</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44927</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44836</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44745</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44654</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44556</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44374</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44283</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44192</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44101</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44010</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43919</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43828</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43737</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43464</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43282</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43191</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43009</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42918</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42827</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42736</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E8" s="3">
         <v>17100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>25700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>18600</v>
       </c>
       <c r="S8" s="3">
         <v>18600</v>
       </c>
       <c r="T8" s="3">
+        <v>18600</v>
+      </c>
+      <c r="U8" s="3">
         <v>15900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>18700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>20500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>15500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>22700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>17500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>16500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>13600</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>17300</v>
       </c>
       <c r="AD8" s="3">
         <v>17300</v>
       </c>
       <c r="AE8" s="3">
+        <v>17300</v>
+      </c>
+      <c r="AF8" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E9" s="3">
         <v>12400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>16800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>12200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>10000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>12100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>11600</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4700</v>
+        <v>6600</v>
       </c>
       <c r="E10" s="3">
         <v>4700</v>
       </c>
       <c r="F10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G10" s="3">
         <v>4500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>5200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>5700</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,8 +1101,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1177,8 +1191,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,8 +1283,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1296,13 +1316,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2200</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1322,8 +1342,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1332,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>6500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>300</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
@@ -1355,16 +1375,19 @@
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>100</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1388,7 +1411,7 @@
         <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>200</v>
@@ -1444,8 +1467,11 @@
       <c r="AE15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1500,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>16400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>16200</v>
       </c>
       <c r="S17" s="3">
         <v>16200</v>
       </c>
       <c r="T17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="U17" s="3">
         <v>14800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>18000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>15000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>20700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>15900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>15200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>12900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>14700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>14200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1800</v>
-      </c>
-      <c r="R18" s="3">
-        <v>2400</v>
       </c>
       <c r="S18" s="3">
         <v>2400</v>
       </c>
       <c r="T18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U18" s="3">
         <v>1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,44 +1718,45 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1736,14 +1770,14 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1763,39 +1797,42 @@
         <v>0</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3300</v>
       </c>
       <c r="J21" s="3">
         <v>3300</v>
@@ -1804,67 +1841,70 @@
         <v>3300</v>
       </c>
       <c r="L21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M21" s="3">
         <v>3600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>2800</v>
       </c>
       <c r="S21" s="3">
         <v>2800</v>
       </c>
       <c r="T21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U21" s="3">
         <v>1500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>3300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1901,8 +1941,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1919,8 +1959,8 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>100</v>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
@@ -1935,7 +1975,7 @@
         <v>100</v>
       </c>
       <c r="Z22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1952,28 +1992,31 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3000</v>
       </c>
       <c r="J23" s="3">
         <v>3000</v>
@@ -1982,87 +2025,90 @@
         <v>3000</v>
       </c>
       <c r="L23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M23" s="3">
         <v>3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1900</v>
-      </c>
-      <c r="R23" s="3">
-        <v>2400</v>
       </c>
       <c r="S23" s="3">
         <v>2400</v>
       </c>
       <c r="T23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U23" s="3">
         <v>1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>3100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>600</v>
       </c>
       <c r="J24" s="3">
         <v>600</v>
@@ -2074,64 +2120,67 @@
         <v>600</v>
       </c>
       <c r="M24" s="3">
+        <v>600</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>300</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
       </c>
       <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>500</v>
       </c>
       <c r="V24" s="3">
         <v>500</v>
       </c>
       <c r="W24" s="3">
+        <v>500</v>
+      </c>
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>600</v>
       </c>
       <c r="Z24" s="3">
         <v>600</v>
       </c>
       <c r="AA24" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB24" s="3">
         <v>500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1200</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,28 +2268,31 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2400</v>
       </c>
       <c r="J26" s="3">
         <v>2400</v>
@@ -2249,87 +2301,90 @@
         <v>2400</v>
       </c>
       <c r="L26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M26" s="3">
         <v>2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1900</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2400</v>
       </c>
       <c r="J27" s="3">
         <v>2400</v>
@@ -2338,67 +2393,70 @@
         <v>2400</v>
       </c>
       <c r="L27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M27" s="3">
         <v>2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2536,8 +2597,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2554,14 +2615,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2575,8 +2636,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,44 +2820,47 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2804,14 +2874,14 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2831,39 +2901,42 @@
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
       <c r="AD32" s="3">
         <v>0</v>
       </c>
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2400</v>
       </c>
       <c r="J33" s="3">
         <v>2400</v>
@@ -2872,67 +2945,70 @@
         <v>2400</v>
       </c>
       <c r="L33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M33" s="3">
         <v>2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1900</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,28 +3096,31 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2400</v>
       </c>
       <c r="J35" s="3">
         <v>2400</v>
@@ -3050,161 +3129,167 @@
         <v>2400</v>
       </c>
       <c r="L35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M35" s="3">
         <v>2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1900</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E38" s="2">
         <v>45109</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45018</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44927</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44836</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44745</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44654</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44556</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44374</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44283</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44192</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44101</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44010</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43919</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43828</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43737</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43464</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43282</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43191</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43009</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42918</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42827</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42736</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,70 +3355,71 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3500</v>
-      </c>
-      <c r="U41" s="3">
-        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>200</v>
@@ -3341,25 +3428,28 @@
         <v>200</v>
       </c>
       <c r="Z41" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>11900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>14400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3447,248 +3537,257 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E43" s="3">
         <v>15800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>22800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>17600</v>
       </c>
       <c r="H43" s="3">
         <v>17600</v>
       </c>
       <c r="I43" s="3">
+        <v>17600</v>
+      </c>
+      <c r="J43" s="3">
         <v>23200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>21000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>18800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>17800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>15000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>16700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>14600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>18500</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>12800</v>
       </c>
       <c r="AA43" s="3">
         <v>12800</v>
       </c>
       <c r="AB43" s="3">
+        <v>12800</v>
+      </c>
+      <c r="AC43" s="3">
         <v>13100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>15600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>14500</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E44" s="3">
         <v>37700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>34200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>25800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>27700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>26400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>24500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>24200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>22000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>22800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>19200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>17300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>17700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>23600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>21900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>20400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>19500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>22200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>19800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>20800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>19800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>22800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>16800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>15600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>15800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>16400</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1600</v>
-      </c>
-      <c r="W45" s="3">
-        <v>1300</v>
       </c>
       <c r="X45" s="3">
         <v>1300</v>
@@ -3697,114 +3796,120 @@
         <v>1300</v>
       </c>
       <c r="Z45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA45" s="3">
         <v>2100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1100</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>1800</v>
       </c>
       <c r="AC45" s="3">
         <v>1800</v>
       </c>
       <c r="AD45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AE45" s="3">
         <v>3200</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E46" s="3">
         <v>55700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>60400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>49200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>48800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>49400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>48900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>45300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>45100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>45500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>37000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>41600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>37300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>37500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>38700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>38800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>37900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>36800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>39800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>37800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>33900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>42300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>41100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>48400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3892,64 +3997,67 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E48" s="3">
         <v>18400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3400</v>
-      </c>
-      <c r="U48" s="3">
-        <v>1900</v>
       </c>
       <c r="V48" s="3">
         <v>1900</v>
@@ -3958,120 +4066,126 @@
         <v>1900</v>
       </c>
       <c r="X48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>400</v>
-      </c>
-      <c r="AD48" s="3">
-        <v>500</v>
       </c>
       <c r="AE48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>13100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>13300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>13600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>13800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>14000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>14200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>14400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>14600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>12100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>4300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>4400</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,8 +4365,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4260,7 +4380,7 @@
         <v>200</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -4272,73 +4392,76 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>500</v>
       </c>
       <c r="L52" s="3">
+        <v>500</v>
+      </c>
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>400</v>
       </c>
       <c r="S52" s="3">
         <v>400</v>
       </c>
       <c r="T52" s="3">
+        <v>400</v>
+      </c>
+      <c r="U52" s="3">
         <v>700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>600</v>
-      </c>
-      <c r="V52" s="3">
-        <v>500</v>
       </c>
       <c r="W52" s="3">
         <v>500</v>
       </c>
       <c r="X52" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y52" s="3">
         <v>600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>800</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>1300</v>
       </c>
       <c r="AB52" s="3">
         <v>1300</v>
       </c>
       <c r="AC52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AD52" s="3">
         <v>1400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1500</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,97 +4549,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E54" s="3">
         <v>85500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>91000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>61400</v>
       </c>
       <c r="G54" s="3">
         <v>61400</v>
       </c>
       <c r="H54" s="3">
+        <v>61400</v>
+      </c>
+      <c r="I54" s="3">
         <v>62600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>60200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>63500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>61300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>65800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>64400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>59700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>57200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>62200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>54100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>55000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>54800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>55000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>54300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>53400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>56600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>55100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>48700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>48200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>47200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>54800</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,97 +4711,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E57" s="3">
         <v>9200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>8900</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>5400</v>
       </c>
       <c r="AB57" s="3">
         <v>5400</v>
       </c>
       <c r="AC57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AD57" s="3">
         <v>5100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>7600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4703,19 +4837,19 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -4732,8 +4866,8 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4759,198 +4893,207 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E59" s="3">
         <v>5900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4900</v>
-      </c>
-      <c r="U59" s="3">
-        <v>3500</v>
       </c>
       <c r="V59" s="3">
         <v>3500</v>
       </c>
       <c r="W59" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="X59" s="3">
         <v>2600</v>
       </c>
       <c r="Y59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Z59" s="3">
         <v>3000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>8500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E60" s="3">
         <v>15100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>13100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>7600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>16100</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E61" s="3">
         <v>6500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4973,20 +5116,20 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4994,26 +5137,26 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>4500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2300</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
@@ -5026,22 +5169,25 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2600</v>
       </c>
       <c r="H62" s="3">
         <v>2600</v>
@@ -5050,49 +5196,49 @@
         <v>2600</v>
       </c>
       <c r="J62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1700</v>
-      </c>
-      <c r="U62" s="3">
-        <v>1200</v>
       </c>
       <c r="V62" s="3">
         <v>1200</v>
       </c>
       <c r="W62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X62" s="3">
         <v>1100</v>
-      </c>
-      <c r="X62" s="3">
-        <v>1000</v>
       </c>
       <c r="Y62" s="3">
         <v>1000</v>
@@ -5101,10 +5247,10 @@
         <v>1000</v>
       </c>
       <c r="AA62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB62" s="3">
         <v>800</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>700</v>
       </c>
       <c r="AC62" s="3">
         <v>700</v>
@@ -5113,10 +5259,13 @@
         <v>700</v>
       </c>
       <c r="AE62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AF62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,97 +5537,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E66" s="3">
         <v>36600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>17300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>16400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>9400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>8300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>16800</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,97 +6031,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E72" s="3">
         <v>7300</v>
-      </c>
-      <c r="E72" s="3">
-        <v>7800</v>
       </c>
       <c r="F72" s="3">
         <v>7800</v>
       </c>
       <c r="G72" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H72" s="3">
         <v>7200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,97 +6399,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E76" s="3">
         <v>49000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>46700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>45800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>43900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>43800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>42400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>45500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>43700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>42400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>42700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>40700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>39900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>38800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>39300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>38700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>38900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>38800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>38900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>38100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,122 +6583,128 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E80" s="2">
         <v>45109</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45018</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44927</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44836</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44745</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44654</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44556</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44374</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44283</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44192</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44101</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44010</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43919</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43828</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43737</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43464</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43282</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43191</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43009</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42918</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42827</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42736</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2400</v>
       </c>
       <c r="J81" s="3">
         <v>2400</v>
@@ -6518,67 +6713,70 @@
         <v>2400</v>
       </c>
       <c r="L81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M81" s="3">
         <v>2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1900</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,8 +6808,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6619,7 +6818,7 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -6643,7 +6842,7 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
@@ -6676,19 +6875,19 @@
         <v>400</v>
       </c>
       <c r="X83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y83" s="3">
         <v>300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>400</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>300</v>
       </c>
       <c r="AA83" s="3">
         <v>300</v>
       </c>
       <c r="AB83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AC83" s="3">
         <v>200</v>
@@ -6699,8 +6898,11 @@
       <c r="AE83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>6300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>4900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>5000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,73 +7486,74 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-200</v>
       </c>
       <c r="V91" s="3">
         <v>-200</v>
       </c>
       <c r="W91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X91" s="3">
         <v>-300</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>-100</v>
@@ -7341,22 +7562,25 @@
         <v>-100</v>
       </c>
       <c r="AA91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
       <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-100</v>
       </c>
-      <c r="AE91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,22 +7760,25 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -7560,70 +7790,73 @@
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-200</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
       </c>
       <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-200</v>
       </c>
       <c r="V94" s="3">
         <v>-200</v>
       </c>
       <c r="W94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X94" s="3">
         <v>-300</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-100</v>
       </c>
       <c r="Y94" s="3">
         <v>-100</v>
       </c>
       <c r="Z94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-6600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-100</v>
       </c>
-      <c r="AE94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,8 +7888,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7676,10 +7910,10 @@
         <v>-800</v>
       </c>
       <c r="I96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-4300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-800</v>
       </c>
       <c r="K96" s="3">
         <v>-800</v>
@@ -7688,22 +7922,22 @@
         <v>-800</v>
       </c>
       <c r="M96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N96" s="3">
         <v>-3400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3400</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-800</v>
       </c>
       <c r="S96" s="3">
         <v>-800</v>
@@ -7736,16 +7970,19 @@
         <v>-800</v>
       </c>
       <c r="AC96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-4800</v>
-      </c>
-      <c r="AD96" s="3">
-        <v>-800</v>
       </c>
       <c r="AE96" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,31 +8254,34 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-800</v>
       </c>
       <c r="G100" s="3">
         <v>-800</v>
       </c>
       <c r="H100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-800</v>
       </c>
       <c r="K100" s="3">
         <v>-800</v>
@@ -8044,19 +8290,19 @@
         <v>-800</v>
       </c>
       <c r="M100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N100" s="3">
         <v>-3500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-800</v>
       </c>
       <c r="R100" s="3">
         <v>-800</v>
@@ -8065,43 +8311,46 @@
         <v>-800</v>
       </c>
       <c r="T100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U100" s="3">
         <v>-5300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>6300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-4900</v>
-      </c>
-      <c r="AD100" s="3">
-        <v>-800</v>
       </c>
       <c r="AE100" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8189,93 +8438,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-8700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>4000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-6500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>4200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-2200</v>
       </c>
     </row>
